--- a/biology/Botanique/Butomus_umbellatus/Butomus_umbellatus.xlsx
+++ b/biology/Botanique/Butomus_umbellatus/Butomus_umbellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jonc fleuri, encore appelé Butome à ombelle au Canada ou Butome en ombelle en Europe (Butomus umbellatus), est une espèce de plantes aquatiques herbacées vivaces de la famille des Butomacées.
 Cette espèce est originaire d'Eurasie. Elle vit dans les marais et autres lieux humides des zones tempérées. La plante est parfois appelée Carélé.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont linéaires, les fleurs roses disposées en ombelles ; la plante atteint 1 m à 1,5 m de hauteur.
 </t>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot butome dérive du bas latin butomos, -i qui est lui-même la transcription du mot grec βούτομος (de bous, « bœuf » et temno, « couper ») qui signifie littéralement, d'après Anatole Bailly, « qui coupe la langue des bœufs » en raison du caractère coupant des feuilles de ce jonc fleuri[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot butome dérive du bas latin butomos, -i qui est lui-même la transcription du mot grec βούτομος (de bous, « bœuf » et temno, « couper ») qui signifie littéralement, d'après Anatole Bailly, « qui coupe la langue des bœufs » en raison du caractère coupant des feuilles de ce jonc fleuri.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
@@ -619,13 +637,15 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français.
 En France l'espèce est considérée en danger (EN) en Rhône-Alpes ;  vulnérable (VU) en Midi-Pyrénées, Ile de France et Provence-Alpes-Côte d’Azur ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Aquitaine, Haute-Normandie, Basse-Normandie, Bretagne et Auvergne.
 Le Jonc fleuri est protégé dans plusieurs régions de France, dont le Nord - Pas-de-Calais, Bourgogne, Alsace, Franche-Comté, Aquitaine, Midi-Pyrénées et Rhône-Alpes (Article 1).
 Il l'est également en Algérie.
-Il est considéré comme une espèce envahissante en Amérique du Nord où il a été introduit en 1897[3].
+Il est considéré comme une espèce envahissante en Amérique du Nord où il a été introduit en 1897.
 </t>
         </is>
       </c>
@@ -654,9 +674,11 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), son rhizome charnu pourrait être mangé cru (mais il est très mucilagineux), il pouvait être consommé cuit ; attention l'espèce est protégée sur une partie de son aire de répartition[4]. Il a été consommé en Asie et en Europe (ex : Norvège et en Bosnie où il était récemment consommé en bouillies et galettes)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), son rhizome charnu pourrait être mangé cru (mais il est très mucilagineux), il pouvait être consommé cuit ; attention l'espèce est protégée sur une partie de son aire de répartition. Il a été consommé en Asie et en Europe (ex : Norvège et en Bosnie où il était récemment consommé en bouillies et galettes).
 </t>
         </is>
       </c>
